--- a/Config/Bullet.xlsx
+++ b/Config/Bullet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F721BE7A-4FC2-44E8-AE03-E52EEFD66A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C688AAD-DF60-4D98-B6C0-65E5BFCAFA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4980" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="9780" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
@@ -62,6 +62,60 @@
   <si>
     <t>对应资源表ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamInt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamInt2</t>
+  </si>
+  <si>
+    <t>ParamInt3</t>
+  </si>
+  <si>
+    <t>ParamInt4</t>
+  </si>
+  <si>
+    <t>ParamInt5</t>
+  </si>
+  <si>
+    <t>int参数2</t>
+  </si>
+  <si>
+    <t>int参数3</t>
+  </si>
+  <si>
+    <t>int参数4</t>
+  </si>
+  <si>
+    <t>int参数5</t>
+  </si>
+  <si>
+    <t>ParamStr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamStr2</t>
+  </si>
+  <si>
+    <t>str参数2</t>
   </si>
 </sst>
 </file>
@@ -386,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -397,7 +451,7 @@
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -418,8 +472,29 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -432,8 +507,29 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -446,8 +542,29 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -456,6 +573,32 @@
       </c>
       <c r="D5">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+      <c r="H6">
+        <v>360</v>
+      </c>
+      <c r="I6">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Bullet.xlsx
+++ b/Config/Bullet.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C688AAD-DF60-4D98-B6C0-65E5BFCAFA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F7D526-D05A-42BD-882B-98224E1A9D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="9780" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="子弹描述" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -116,6 +117,63 @@
   </si>
   <si>
     <t>str参数2</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线追踪子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转半径mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个子弹有效范围最小值mm（0即圆心）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个子弹有效范围最大值mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒旋转角度 顺时针为正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当旋转了多少度时子弹终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线曲率随机最大值（0即是直线）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线曲率随机最小值（1000即出发点偏移45度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：目标是个角色
+0：目标是个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲率控制点位置（0-1000）0是在起始点法线，1000是终点法线上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -158,8 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,6 +635,9 @@
       <c r="D5">
         <v>2000</v>
       </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -599,6 +663,32 @@
       </c>
       <c r="I6">
         <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
+      <c r="F7">
+        <v>700</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -606,4 +696,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC2E73A-65BD-407C-99B6-345B2D67BF1B}">
+  <dimension ref="A2:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Config/Bullet.xlsx
+++ b/Config/Bullet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F7D526-D05A-42BD-882B-98224E1A9D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8E359-7AA8-462C-A5C7-BE398ED3B8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -173,6 +173,26 @@
   </si>
   <si>
     <t>曲率控制点位置（0-1000）0是在起始点法线，1000是终点法线上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线穿透子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万胶王子弹标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万胶王sp技能逆羽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,18 +521,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,56 +541,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -584,13 +602,16 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -598,97 +619,146 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1200</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>360</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2000</v>
       </c>
-      <c r="E7">
-        <v>10000</v>
-      </c>
       <c r="F7">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="H7">
+        <v>400</v>
+      </c>
+      <c r="I7">
         <v>500</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>6000</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -700,10 +770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC2E73A-65BD-407C-99B6-345B2D67BF1B}">
-  <dimension ref="A2:J7"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -865,6 +935,17 @@
         <v>38</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Bullet.xlsx
+++ b/Config/Bullet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8E359-7AA8-462C-A5C7-BE398ED3B8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F024E36-8E8F-4F6A-8650-6FE07883AEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="3810" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -193,6 +193,14 @@
   </si>
   <si>
     <t>万胶王sp技能逆羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线穿透飞剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,19 +529,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -576,7 +584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -611,7 +619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -649,7 +657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -663,7 +671,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -689,7 +697,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -718,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -732,7 +740,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -759,6 +767,52 @@
       </c>
       <c r="J9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2005</v>
+      </c>
+      <c r="F10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2005</v>
+      </c>
+      <c r="F11">
+        <v>6000</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <v>400</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -776,19 +830,19 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,7 +871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -846,7 +900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -889,7 +943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -912,7 +966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -935,7 +989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
